--- a/JOURNALS/test.xlsx
+++ b/JOURNALS/test.xlsx
@@ -1,29 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Algebra" sheetId="1" r:id="rId1"/>
-    <sheet name="Geometry" sheetId="2" r:id="rId2"/>
-    <sheet name="English" sheetId="3" r:id="rId3"/>
-    <sheet name="Physics" sheetId="4" r:id="rId4"/>
-    <sheet name="P.E" sheetId="5" r:id="rId5"/>
+    <sheet sheetId="1" name="Algebra" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Geometry" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="English" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Physics" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="P.E" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="Algebra (2)" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="Algebra (3)" state="visible" r:id="rId10"/>
+    <sheet sheetId="8" name="Algebra (4)" state="visible" r:id="rId11"/>
+    <sheet sheetId="9" name="Algebra (5)" state="visible" r:id="rId12"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+  <si>
+    <t>08.02</t>
+  </si>
+  <si>
+    <t>09.02</t>
+  </si>
+  <si>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>11.02</t>
+  </si>
+  <si>
+    <t>12.02</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Василь</t>
+  </si>
+  <si>
+    <t>Петро</t>
+  </si>
+  <si>
+    <t>Тарас</t>
+  </si>
+  <si>
+    <t>Єгор</t>
+  </si>
+  <si>
+    <t>13.02</t>
+  </si>
+  <si>
+    <t>14.02</t>
+  </si>
+  <si>
+    <t>15.02</t>
+  </si>
+  <si>
+    <t>16.02</t>
+  </si>
+  <si>
+    <t>17.02</t>
+  </si>
+  <si>
+    <t>18.02</t>
+  </si>
+  <si>
+    <t>19.02</t>
+  </si>
+  <si>
+    <t>20.02</t>
+  </si>
+  <si>
+    <t>21.02</t>
+  </si>
+  <si>
+    <t>22.02</t>
+  </si>
+  <si>
+    <t>23.02</t>
+  </si>
+  <si>
+    <t>24.02</t>
+  </si>
+  <si>
+    <t>25.02</t>
+  </si>
+  <si>
+    <t>26.02</t>
+  </si>
+  <si>
+    <t>27.02</t>
+  </si>
+  <si>
+    <t>28.02</t>
+  </si>
+  <si>
+    <t>01.03</t>
+  </si>
+  <si>
+    <t>02.03</t>
+  </si>
+  <si>
+    <t>03.03</t>
+  </si>
+  <si>
+    <t>04.03</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,13 +148,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,66 +487,507 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="DggiIPzYv2VMEQbNZF4mMlSkcGWF0HQIPrbxVI2SbRixQfQBxfTLjzZOlcBDoZ4JkWtYat8j33NwStq/RULoQQ==" saltValue="oDwLxxO9xLGRnuHCMpxVYA==" spinCount="100000"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="ege1+rMIi5NlvBQv0Wpbz02vhV2UE+ymzSHGhuFBO7qMg0AuetKZcnvaw5Xfi/P5eVIZZf9pnP1C/lCyiZcGkQ==" saltValue="msIcfSbjw2/nitgrMPlt4A==" spinCount="100000"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="ty0YXTs29WUDTmfoKPcmEiubuip6qiVGcHC241isI1kdOxaWUZRW/yZRgkIO0G299t7nX/cFJGYbbnQL5LvMSg==" saltValue="EHnyQdkCJ2ISMnZquvJKWw==" spinCount="100000"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="Me4+zuejC7K4/pI7gT41gMAYdrrQakEqWJhev/OzwcLA04Z9d9aMPzB+DTGHztUWVAT6cefaKQgA85n760VUFA==" saltValue="gueIKfxO5IrDtcN/KDX8KA==" spinCount="100000"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="rIyz3dkS6kQSBEGw1ZDrQzemSxbsJqnRVlLlXIclJIdiFrUNwGi8yDCZXGT/PP5rUcS4wzGLjkvvGy4x75QWwg==" saltValue="frCcFENYslkKHJD9mybnSw==" spinCount="100000"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/JOURNALS/test.xlsx
+++ b/JOURNALS/test.xlsx
@@ -6,13 +6,13 @@
   <sheets>
     <sheet sheetId="1" name="Algebra" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Geometry" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="English" state="visible" r:id="rId6"/>
+    <sheet sheetId="3" name="Grammar" state="visible" r:id="rId6"/>
     <sheet sheetId="4" name="Physics" state="visible" r:id="rId7"/>
     <sheet sheetId="5" name="P.E" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Algebra (2)" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Algebra (3)" state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="Algebra (4)" state="visible" r:id="rId11"/>
-    <sheet sheetId="9" name="Algebra (5)" state="visible" r:id="rId12"/>
+    <sheet sheetId="6" name="Grammar (2)" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="Grammar (3)" state="visible" r:id="rId10"/>
+    <sheet sheetId="8" name="Grammar (4)" state="visible" r:id="rId11"/>
+    <sheet sheetId="9" name="Grammar (5)" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -495,7 +495,7 @@
     <col min="2" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +536,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="DggiIPzYv2VMEQbNZF4mMlSkcGWF0HQIPrbxVI2SbRixQfQBxfTLjzZOlcBDoZ4JkWtYat8j33NwStq/RULoQQ==" saltValue="oDwLxxO9xLGRnuHCMpxVYA==" spinCount="100000"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -592,7 +591,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="ege1+rMIi5NlvBQv0Wpbz02vhV2UE+ymzSHGhuFBO7qMg0AuetKZcnvaw5Xfi/P5eVIZZf9pnP1C/lCyiZcGkQ==" saltValue="msIcfSbjw2/nitgrMPlt4A==" spinCount="100000"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -648,7 +646,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="ty0YXTs29WUDTmfoKPcmEiubuip6qiVGcHC241isI1kdOxaWUZRW/yZRgkIO0G299t7nX/cFJGYbbnQL5LvMSg==" saltValue="EHnyQdkCJ2ISMnZquvJKWw==" spinCount="100000"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -704,7 +701,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="Me4+zuejC7K4/pI7gT41gMAYdrrQakEqWJhev/OzwcLA04Z9d9aMPzB+DTGHztUWVAT6cefaKQgA85n760VUFA==" saltValue="gueIKfxO5IrDtcN/KDX8KA==" spinCount="100000"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -760,7 +756,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="rIyz3dkS6kQSBEGw1ZDrQzemSxbsJqnRVlLlXIclJIdiFrUNwGi8yDCZXGT/PP5rUcS4wzGLjkvvGy4x75QWwg==" saltValue="frCcFENYslkKHJD9mybnSw==" spinCount="100000"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -775,7 +770,7 @@
     <col min="2" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -817,7 +812,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -830,7 +825,7 @@
     <col min="2" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -872,7 +867,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -885,7 +880,7 @@
     <col min="2" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -927,7 +922,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -940,7 +935,7 @@
     <col min="2" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -988,6 +983,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>